--- a/Overview/overview.xlsx
+++ b/Overview/overview.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\LEARN\SEMESTER VII\TEMU KEMBALI INFORMASI\SCRAPPING PN TANJUNG PARANG\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\LEARN\SEMESTER VII\TEMU KEMBALI INFORMASI\SCRAPPING PN TANJUNG PARANG\Tugas Scarpping MA\Overview\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6ECFAD5-6CFA-40D0-ACB1-CDD909C768CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E38AB265-8BC6-40E1-B000-6CC7960443BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,16 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="150">
-  <si>
-    <t>nomor</t>
-  </si>
-  <si>
-    <t>lembaga_peradilan</t>
-  </si>
-  <si>
-    <t>catatan_amar</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="151">
   <si>
     <t>146/Pid.Sus/2023/PN Tjk</t>
   </si>
@@ -470,13 +461,25 @@
   </si>
   <si>
     <t>MENGADILI: Menyatakan Terdakwa  Agus Atiyawan Bin Matlias telah terbukti secara sah dan meyakinkan bersalah melakukan tindak pidana ?penyalahgunaan Narkotika Golongan I bagi diri sendiri? sebagaimana dalam dakwaan ketiga Penuntut Umum; Menjatuhkan pidana kepada Terdakwa Agus Atiyawan Bin Matlias oleh karena itu dengan pidana penjara selama 1 (Satu) tahun dan 6 (enam) bulan; Menetapkan masa penangkapan dan penahanan yang telah dijalani Terdakwa dikurangkan seluruhnya dari pidana yang dijatuhkan; Menetapkan Terdakwa tetap ditahan; Menetapkan barang bukti berupa seperangkat alat hisap atau bong yang masih ada sisa residu sabu dirampas untuk dimusnahkan; Membebankan kepada Terdakwa untuk membayar biaya perkara sebesar Rp2.000,00 (dua ribu rupiah);</t>
+  </si>
+  <si>
+    <t>No.</t>
+  </si>
+  <si>
+    <t>No Putusan</t>
+  </si>
+  <si>
+    <t>Lembaga Peradilan</t>
+  </si>
+  <si>
+    <t>Amar Putusan</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -489,13 +492,27 @@
       <sz val="11"/>
       <name val="Calibri"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -525,16 +542,31 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -838,735 +870,891 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D51"/>
+  <dimension ref="A1:F51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A45" zoomScale="104" zoomScaleNormal="104" workbookViewId="0">
-      <selection activeCell="D51" sqref="A2:D51"/>
+    <sheetView tabSelected="1" zoomScale="104" zoomScaleNormal="104" workbookViewId="0">
+      <selection sqref="A1:E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="29.36328125" customWidth="1"/>
+    <col min="1" max="1" width="8.81640625" customWidth="1"/>
     <col min="2" max="2" width="22.90625" customWidth="1"/>
     <col min="3" max="3" width="42.453125" customWidth="1"/>
     <col min="4" max="4" width="55.54296875" customWidth="1"/>
+    <col min="5" max="5" width="27.26953125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A1" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>149</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="E1" s="8" t="s">
+        <v>150</v>
+      </c>
+      <c r="F1" s="3"/>
+    </row>
+    <row r="2" spans="1:6" ht="409.5" x14ac:dyDescent="0.35">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="2" t="s">
+      <c r="C2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="409.5" x14ac:dyDescent="0.35">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="409.5" x14ac:dyDescent="0.35">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="409.5" x14ac:dyDescent="0.35">
+      <c r="A5" s="1">
+        <v>4</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D5" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" ht="409.5" x14ac:dyDescent="0.35">
-      <c r="A2" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="D2" s="3" t="s">
+      <c r="E5" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="409.5" x14ac:dyDescent="0.35">
+      <c r="A6" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" ht="275.5" x14ac:dyDescent="0.35">
-      <c r="A3" s="3" t="s">
+      <c r="B6" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="409.5" x14ac:dyDescent="0.35">
+      <c r="A7" s="1">
         <v>6</v>
       </c>
-      <c r="B3" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3" s="3" t="s">
+      <c r="B7" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="409.5" x14ac:dyDescent="0.35">
+      <c r="A8" s="1">
+        <v>7</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="409.5" x14ac:dyDescent="0.35">
+      <c r="A9" s="1">
+        <v>8</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D9" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="D3" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="290" x14ac:dyDescent="0.35">
-      <c r="A4" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="D4" s="3" t="s">
+      <c r="E9" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="409.5" x14ac:dyDescent="0.35">
+      <c r="A10" s="1">
         <v>9</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" ht="232" x14ac:dyDescent="0.35">
-      <c r="A5" s="3" t="s">
+      <c r="B10" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="409.5" x14ac:dyDescent="0.35">
+      <c r="A11" s="1">
         <v>10</v>
       </c>
-      <c r="B5" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="D5" s="3" t="s">
+      <c r="B11" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="409.5" x14ac:dyDescent="0.35">
+      <c r="A12" s="1">
         <v>11</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" ht="261" x14ac:dyDescent="0.35">
-      <c r="A6" s="3" t="s">
+      <c r="B12" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="409.5" x14ac:dyDescent="0.35">
+      <c r="A13" s="1">
         <v>12</v>
       </c>
-      <c r="B6" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="D6" s="3" t="s">
+      <c r="B13" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="409.5" x14ac:dyDescent="0.35">
+      <c r="A14" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" ht="377" x14ac:dyDescent="0.35">
-      <c r="A7" s="3" t="s">
+      <c r="B14" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="409.5" x14ac:dyDescent="0.35">
+      <c r="A15" s="1">
         <v>14</v>
       </c>
-      <c r="B7" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="D7" s="3" t="s">
+      <c r="B15" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="409.5" x14ac:dyDescent="0.35">
+      <c r="A16" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" ht="362.5" x14ac:dyDescent="0.35">
-      <c r="A8" s="3" t="s">
+      <c r="B16" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="406" x14ac:dyDescent="0.35">
+      <c r="A17" s="1">
         <v>16</v>
       </c>
-      <c r="B8" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="D8" s="3" t="s">
+      <c r="B17" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="409.5" x14ac:dyDescent="0.35">
+      <c r="A18" s="1">
         <v>17</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" ht="409.5" x14ac:dyDescent="0.35">
-      <c r="A9" s="3" t="s">
+      <c r="B18" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="409.5" x14ac:dyDescent="0.35">
+      <c r="A19" s="1">
         <v>18</v>
       </c>
-      <c r="B9" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="D9" s="3" t="s">
+      <c r="B19" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="409.5" x14ac:dyDescent="0.35">
+      <c r="A20" s="1">
         <v>19</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" ht="377" x14ac:dyDescent="0.35">
-      <c r="A10" s="3" t="s">
+      <c r="B20" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="409.5" x14ac:dyDescent="0.35">
+      <c r="A21" s="1">
         <v>20</v>
       </c>
-      <c r="B10" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="D10" s="3" t="s">
+      <c r="B21" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="409.5" x14ac:dyDescent="0.35">
+      <c r="A22" s="1">
         <v>21</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" ht="377" x14ac:dyDescent="0.35">
-      <c r="A11" s="3" t="s">
+      <c r="B22" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="409.5" x14ac:dyDescent="0.35">
+      <c r="A23" s="1">
         <v>22</v>
       </c>
-      <c r="B11" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="D11" s="3" t="s">
+      <c r="B23" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="409.5" x14ac:dyDescent="0.35">
+      <c r="A24" s="1">
         <v>23</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" ht="304.5" x14ac:dyDescent="0.35">
-      <c r="A12" s="3" t="s">
+      <c r="B24" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="409.5" x14ac:dyDescent="0.35">
+      <c r="A25" s="1">
         <v>24</v>
       </c>
-      <c r="B12" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="D12" s="3" t="s">
+      <c r="B25" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" ht="409.5" x14ac:dyDescent="0.35">
+      <c r="A26" s="1">
         <v>25</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" ht="275.5" x14ac:dyDescent="0.35">
-      <c r="A13" s="3" t="s">
+      <c r="B26" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" ht="409.5" x14ac:dyDescent="0.35">
+      <c r="A27" s="1">
         <v>26</v>
       </c>
-      <c r="B13" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="D13" s="3" t="s">
+      <c r="B27" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" ht="409.5" x14ac:dyDescent="0.35">
+      <c r="A28" s="1">
         <v>27</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" ht="188.5" x14ac:dyDescent="0.35">
-      <c r="A14" s="3" t="s">
+      <c r="B28" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" ht="409.5" x14ac:dyDescent="0.35">
+      <c r="A29" s="1">
         <v>28</v>
       </c>
-      <c r="B14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="D14" s="3" t="s">
+      <c r="B29" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" ht="409.5" x14ac:dyDescent="0.35">
+      <c r="A30" s="1">
         <v>29</v>
       </c>
-    </row>
-    <row r="15" spans="1:4" ht="409.5" x14ac:dyDescent="0.35">
-      <c r="A15" s="3" t="s">
+      <c r="B30" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="E30" s="2" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" ht="409.5" x14ac:dyDescent="0.35">
+      <c r="A31" s="1">
         <v>30</v>
       </c>
-      <c r="B15" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="D15" s="3" t="s">
+      <c r="B31" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="E31" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" ht="409.5" x14ac:dyDescent="0.35">
+      <c r="A32" s="1">
         <v>31</v>
       </c>
-    </row>
-    <row r="16" spans="1:4" ht="290" x14ac:dyDescent="0.35">
-      <c r="A16" s="3" t="s">
+      <c r="B32" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="E32" s="2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" ht="409.5" x14ac:dyDescent="0.35">
+      <c r="A33" s="1">
         <v>32</v>
       </c>
-      <c r="B16" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>115</v>
-      </c>
-      <c r="D16" s="3" t="s">
+      <c r="B33" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="E33" s="2" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" ht="409.5" x14ac:dyDescent="0.35">
+      <c r="A34" s="1">
         <v>33</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" ht="188.5" x14ac:dyDescent="0.35">
-      <c r="A17" s="3" t="s">
+      <c r="B34" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="E34" s="2" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" ht="409.5" x14ac:dyDescent="0.35">
+      <c r="A35" s="1">
         <v>34</v>
       </c>
-      <c r="B17" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="D17" s="3" t="s">
+      <c r="B35" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="E35" s="2" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" ht="409.5" x14ac:dyDescent="0.35">
+      <c r="A36" s="1">
         <v>35</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" ht="217.5" x14ac:dyDescent="0.35">
-      <c r="A18" s="3" t="s">
+      <c r="B36" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="E36" s="2" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" ht="409.5" x14ac:dyDescent="0.35">
+      <c r="A37" s="1">
         <v>36</v>
       </c>
-      <c r="B18" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>117</v>
-      </c>
-      <c r="D18" s="3" t="s">
+      <c r="B37" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="E37" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" ht="409.5" x14ac:dyDescent="0.35">
+      <c r="A38" s="1">
         <v>37</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" ht="203" x14ac:dyDescent="0.35">
-      <c r="A19" s="3" t="s">
+      <c r="B38" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="E38" s="2" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" ht="409.5" x14ac:dyDescent="0.35">
+      <c r="A39" s="1">
         <v>38</v>
       </c>
-      <c r="B19" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="D19" s="3" t="s">
+      <c r="B39" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="E39" s="2" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" ht="409.5" x14ac:dyDescent="0.35">
+      <c r="A40" s="1">
         <v>39</v>
       </c>
-    </row>
-    <row r="20" spans="1:4" ht="203" x14ac:dyDescent="0.35">
-      <c r="A20" s="3" t="s">
+      <c r="B40" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="E40" s="2" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" ht="409.5" x14ac:dyDescent="0.35">
+      <c r="A41" s="1">
         <v>40</v>
       </c>
-      <c r="B20" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C20" s="3" t="s">
-        <v>119</v>
-      </c>
-      <c r="D20" s="3" t="s">
+      <c r="B41" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D41" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="E41" s="2" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" ht="409.5" x14ac:dyDescent="0.35">
+      <c r="A42" s="1">
         <v>41</v>
       </c>
-    </row>
-    <row r="21" spans="1:4" ht="319" x14ac:dyDescent="0.35">
-      <c r="A21" s="3" t="s">
+      <c r="B42" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D42" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="E42" s="2" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" ht="362.5" x14ac:dyDescent="0.35">
+      <c r="A43" s="1">
         <v>42</v>
       </c>
-      <c r="B21" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C21" s="3" t="s">
-        <v>120</v>
-      </c>
-      <c r="D21" s="3" t="s">
+      <c r="B43" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D43" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="E43" s="2" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" ht="377" x14ac:dyDescent="0.35">
+      <c r="A44" s="1">
         <v>43</v>
       </c>
-    </row>
-    <row r="22" spans="1:4" ht="406" x14ac:dyDescent="0.35">
-      <c r="A22" s="3" t="s">
+      <c r="B44" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D44" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="E44" s="2" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" ht="362.5" x14ac:dyDescent="0.35">
+      <c r="A45" s="1">
         <v>44</v>
       </c>
-      <c r="B22" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C22" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="D22" s="3" t="s">
+      <c r="B45" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D45" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="E45" s="2" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" ht="409.5" x14ac:dyDescent="0.35">
+      <c r="A46" s="1">
         <v>45</v>
       </c>
-    </row>
-    <row r="23" spans="1:4" ht="304.5" x14ac:dyDescent="0.35">
-      <c r="A23" s="3" t="s">
+      <c r="B46" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D46" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="E46" s="2" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" ht="391.5" x14ac:dyDescent="0.35">
+      <c r="A47" s="1">
         <v>46</v>
       </c>
-      <c r="B23" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C23" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="D23" s="3" t="s">
+      <c r="B47" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D47" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="E47" s="2" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" ht="409.5" x14ac:dyDescent="0.35">
+      <c r="A48" s="1">
         <v>47</v>
       </c>
-    </row>
-    <row r="24" spans="1:4" ht="304.5" x14ac:dyDescent="0.35">
-      <c r="A24" s="3" t="s">
+      <c r="B48" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D48" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="E48" s="2" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" ht="409.5" x14ac:dyDescent="0.35">
+      <c r="A49" s="1">
         <v>48</v>
       </c>
-      <c r="B24" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C24" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="D24" s="3" t="s">
+      <c r="B49" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="C49" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D49" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="E49" s="2" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" ht="409.5" x14ac:dyDescent="0.35">
+      <c r="A50" s="1">
         <v>49</v>
       </c>
-    </row>
-    <row r="25" spans="1:4" ht="409.5" x14ac:dyDescent="0.35">
-      <c r="A25" s="3" t="s">
+      <c r="B50" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="C50" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D50" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="E50" s="2" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" ht="409.5" x14ac:dyDescent="0.35">
+      <c r="A51" s="1">
         <v>50</v>
       </c>
-      <c r="B25" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C25" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="D25" s="3" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" ht="232" x14ac:dyDescent="0.35">
-      <c r="A26" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="B26" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C26" s="3" t="s">
-        <v>124</v>
-      </c>
-      <c r="D26" s="3" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" ht="232" x14ac:dyDescent="0.35">
-      <c r="A27" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="B27" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C27" s="3" t="s">
-        <v>125</v>
-      </c>
-      <c r="D27" s="3" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" ht="348" x14ac:dyDescent="0.35">
-      <c r="A28" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="B28" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C28" s="3" t="s">
-        <v>126</v>
-      </c>
-      <c r="D28" s="3" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" ht="203" x14ac:dyDescent="0.35">
-      <c r="A29" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="B29" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C29" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="D29" s="3" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" ht="304.5" x14ac:dyDescent="0.35">
-      <c r="A30" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="B30" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C30" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="D30" s="3" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" ht="290" x14ac:dyDescent="0.35">
-      <c r="A31" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="B31" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C31" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="D31" s="3" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" ht="261" x14ac:dyDescent="0.35">
-      <c r="A32" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="B32" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C32" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="D32" s="3" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" ht="409.5" x14ac:dyDescent="0.35">
-      <c r="A33" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="B33" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C33" s="3" t="s">
-        <v>129</v>
-      </c>
-      <c r="D33" s="3" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" ht="290" x14ac:dyDescent="0.35">
-      <c r="A34" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="B34" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C34" s="3" t="s">
-        <v>130</v>
-      </c>
-      <c r="D34" s="3" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" ht="319" x14ac:dyDescent="0.35">
-      <c r="A35" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="B35" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C35" s="3" t="s">
-        <v>131</v>
-      </c>
-      <c r="D35" s="3" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" ht="261" x14ac:dyDescent="0.35">
-      <c r="A36" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="B36" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C36" s="3" t="s">
-        <v>132</v>
-      </c>
-      <c r="D36" s="3" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" ht="290" x14ac:dyDescent="0.35">
-      <c r="A37" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="B37" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C37" s="3" t="s">
-        <v>133</v>
-      </c>
-      <c r="D37" s="3" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" ht="261" x14ac:dyDescent="0.35">
-      <c r="A38" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="B38" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C38" s="3" t="s">
-        <v>134</v>
-      </c>
-      <c r="D38" s="3" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" ht="348" x14ac:dyDescent="0.35">
-      <c r="A39" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="B39" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C39" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="D39" s="3" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" ht="261" x14ac:dyDescent="0.35">
-      <c r="A40" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="B40" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C40" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="D40" s="3" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" ht="333.5" x14ac:dyDescent="0.35">
-      <c r="A41" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="B41" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C41" s="3" t="s">
-        <v>137</v>
-      </c>
-      <c r="D41" s="3" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" ht="217.5" x14ac:dyDescent="0.35">
-      <c r="A42" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="B42" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C42" s="3" t="s">
-        <v>138</v>
-      </c>
-      <c r="D42" s="3" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" ht="159.5" x14ac:dyDescent="0.35">
-      <c r="A43" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="B43" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C43" s="3" t="s">
-        <v>139</v>
-      </c>
-      <c r="D43" s="3" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" ht="174" x14ac:dyDescent="0.35">
-      <c r="A44" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="B44" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C44" s="3" t="s">
-        <v>140</v>
-      </c>
-      <c r="D44" s="3" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" ht="174" x14ac:dyDescent="0.35">
-      <c r="A45" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="B45" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C45" s="3" t="s">
-        <v>141</v>
-      </c>
-      <c r="D45" s="3" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" ht="203" x14ac:dyDescent="0.35">
-      <c r="A46" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="B46" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C46" s="3" t="s">
-        <v>142</v>
-      </c>
-      <c r="D46" s="3" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" ht="174" x14ac:dyDescent="0.35">
-      <c r="A47" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="B47" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C47" s="3" t="s">
-        <v>143</v>
-      </c>
-      <c r="D47" s="3" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" ht="333.5" x14ac:dyDescent="0.35">
-      <c r="A48" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="B48" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C48" s="3" t="s">
+      <c r="B51" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="D48" s="3" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" ht="409.5" x14ac:dyDescent="0.35">
-      <c r="A49" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="B49" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C49" s="3" t="s">
+      <c r="C51" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D51" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="D49" s="3" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" ht="290" x14ac:dyDescent="0.35">
-      <c r="A50" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="B50" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C50" s="3" t="s">
+      <c r="E51" s="2" t="s">
         <v>146</v>
-      </c>
-      <c r="D50" s="3" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" ht="188.5" x14ac:dyDescent="0.35">
-      <c r="A51" s="3" t="s">
-        <v>147</v>
-      </c>
-      <c r="B51" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C51" s="3" t="s">
-        <v>148</v>
-      </c>
-      <c r="D51" s="3" t="s">
-        <v>149</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>